--- a/OpenMP and MPI/datos darthboard y needless.xlsx
+++ b/OpenMP and MPI/datos darthboard y needless.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Desktop\2019-1\hpc\reto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB338EB4-D068-4A46-83D1-5B8609F7EF3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B747B-489A-4580-9150-05B1D5527372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{14910261-9D42-48F8-BF9F-7C9DB2EFC6CF}"/>
+    <workbookView xWindow="930" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{14910261-9D42-48F8-BF9F-7C9DB2EFC6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -229,6 +229,1792 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5605000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.109301999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0936110020000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.796070099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.615459441999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.380828856999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.172245025999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.984630584999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>atomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5557E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15624199799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4373369220000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.472114563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.789916991999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.288642883000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.814037323000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.177528381000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.6959999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0150000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9550000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7447000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45189198899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6188411709999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0457220080000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.796751975999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.002826690999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.388429641999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>critical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5559E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1184999000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26554098700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7341179850000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.350055695000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.860416411999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.654899596999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.134742737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.33943176299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5568E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5556E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5559E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.161128998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.456362009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.373933792000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.779178619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.391479492000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.673767089999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.868652343999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>reduction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6806E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35928600999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4996931550000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0463118549999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.546090125999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.09558773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.599056244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>monte carlo needless</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>schedulle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200m</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300m</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2942E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6806999000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45309796899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4683718680000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9681272510000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.439008713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.968341827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.37386322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6D14-40B1-8EFF-BDEC202C7CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522617192"/>
+        <c:axId val="522615224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522617192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522615224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522615224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522617192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FBFA00-49A1-4E6C-AFD9-7C3ECAB9DAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD781FD-BEC2-4A82-81AF-226F5C7172D0}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,29 +2723,24 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="e">
-        <f>B3/C3</f>
-        <v>#DIV/0!</v>
+      <c r="C18" s="5">
+        <v>0</v>
       </c>
       <c r="D18" s="5">
         <f>B3/D3</f>
         <v>0</v>
       </c>
-      <c r="E18" s="5" t="e">
-        <f>B3/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="5" t="e">
-        <f>B3/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="5" t="e">
-        <f>B3/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="5" t="e">
-        <f>B3/H3</f>
-        <v>#DIV/0!</v>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,28 +2748,23 @@
       <c r="B19" s="4">
         <v>100</v>
       </c>
-      <c r="C19" s="5" t="e">
-        <f>B4/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="5" t="e">
-        <f t="shared" ref="D19:D29" si="0">B4/D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="5" t="e">
-        <f t="shared" ref="E19:E29" si="1">B4/E4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="5" t="e">
-        <f t="shared" ref="F19:F29" si="2">B4/F4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="5" t="e">
-        <f t="shared" ref="G19:G29" si="3">B4/G4</f>
-        <v>#DIV/0!</v>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" ref="H19:H29" si="4">B4/H4</f>
+        <f t="shared" ref="H19:H29" si="0">B4/H4</f>
         <v>1.2057641786431772</v>
       </c>
     </row>
@@ -997,29 +2773,24 @@
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="e">
-        <f>B5/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="F19:F29" si="1">B5/F5</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,29 +2798,26 @@
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="e">
-        <f>B6/C6</f>
-        <v>#DIV/0!</v>
+      <c r="C21" s="5">
+        <v>0</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D19:D29" si="2">B6/D6</f>
         <v>0</v>
       </c>
       <c r="E21" s="5">
+        <f t="shared" ref="E19:E29" si="3">B6/E6</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1062,24 +2830,22 @@
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,23 +2858,23 @@
         <v>0.69956862046784629</v>
       </c>
       <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3036651210824708</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
+        <v>0.41162006752652464</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.67835088877049932</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ref="G19:G29" si="4">B8/G8</f>
+        <v>2.3352134128103232</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>2.3036651210824708</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
-        <v>0.41162006752652464</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.67835088877049932</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="3"/>
-        <v>2.3352134128103232</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="4"/>
         <v>2.3351635724392414</v>
       </c>
     </row>
@@ -1122,23 +2888,23 @@
         <v>0.76085918705704825</v>
       </c>
       <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4200716733661771</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39998676282435558</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75091975432050706</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0438452140120904</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>2.4200716733661771</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.39998676282435558</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75091975432050706</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0438452140120904</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="4"/>
         <v>2.4136303334434062</v>
       </c>
     </row>
@@ -1152,23 +2918,23 @@
         <v>0.74599119928207824</v>
       </c>
       <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3373979964464988</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39473667693384923</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75108667225173198</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0848619067005032</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>2.3373979964464988</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.39473667693384923</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75108667225173198</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0848619067005032</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="4"/>
         <v>2.416108242090472</v>
       </c>
     </row>
@@ -1182,23 +2948,23 @@
         <v>0.75079964447297287</v>
       </c>
       <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3895781257574988</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39400830062368791</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75107979029427485</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0676274179749599</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>2.3895781257574988</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.39400830062368791</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75107979029427485</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0676274179749599</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="4"/>
         <v>2.4102534271678344</v>
       </c>
     </row>
@@ -1212,23 +2978,23 @@
         <v>0.74802134464040593</v>
       </c>
       <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3469892706143982</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37367568374773152</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.74624855469539786</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0704107844829922</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>2.3469892706143982</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.37367568374773152</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.74624855469539786</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0704107844829922</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="4"/>
         <v>2.4094655750670766</v>
       </c>
     </row>
@@ -1242,23 +3008,23 @@
         <v>0.74674330015739798</v>
       </c>
       <c r="D28" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3980814661501317</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="3"/>
+        <v>0.38160024039972285</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.7485594786730273</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0628197882175145</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>2.3980814661501317</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="1"/>
-        <v>0.38160024039972285</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="2"/>
-        <v>0.7485594786730273</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0628197882175145</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="4"/>
         <v>2.4026838670849155</v>
       </c>
     </row>
@@ -1271,23 +3037,23 @@
         <v>0.7086687075878495</v>
       </c>
       <c r="D29" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3081767955919785</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37926686875416399</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.71155383570312392</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="4"/>
+        <v>3.067473041539079</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>2.3081767955919785</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="1"/>
-        <v>0.37926686875416399</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="2"/>
-        <v>0.71155383570312392</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="3"/>
-        <v>3.067473041539079</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="4"/>
         <v>2.4128435064688842</v>
       </c>
     </row>
@@ -1675,57 +3441,47 @@
       <c r="B48" s="4">
         <v>10</v>
       </c>
-      <c r="C48" s="5" t="e">
-        <f>B33/C33</f>
-        <v>#DIV/0!</v>
+      <c r="C48" s="5">
+        <v>0</v>
       </c>
       <c r="D48" s="5">
         <f>B33/D33</f>
         <v>332.69442815818007</v>
       </c>
-      <c r="E48" s="5" t="e">
-        <f>B33/E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="5" t="e">
-        <f>B33/F33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="5" t="e">
-        <f>B33/G33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="5" t="e">
-        <f>B33/H33</f>
-        <v>#DIV/0!</v>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>100</v>
       </c>
-      <c r="C49" s="5" t="e">
-        <f>B34/C34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" s="5" t="e">
-        <f t="shared" ref="D49:D59" si="5">B34/D34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="5" t="e">
-        <f t="shared" ref="E49:E59" si="6">B34/E34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="5" t="e">
-        <f t="shared" ref="F49:F59" si="7">B34/F34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="5" t="e">
-        <f t="shared" ref="G49:G59" si="8">B34/G34</f>
-        <v>#DIV/0!</v>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" ref="H49:H59" si="9">B34/H34</f>
+        <f t="shared" ref="H49:H59" si="5">B34/H34</f>
         <v>2530.0722394040586</v>
       </c>
     </row>
@@ -1733,29 +3489,23 @@
       <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="e">
-        <f>B35/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1766,25 +3516,22 @@
         <f>B36/C36</f>
         <v>2633.8892404087142</v>
       </c>
-      <c r="D51" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="D51" s="5">
+        <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E49:E59" si="6">B36/E36</f>
         <v>2623.7725158440562</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F49:F59" si="7">B36/F36</f>
         <v>2633.7199890759543</v>
       </c>
-      <c r="G51" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1795,9 +3542,8 @@
         <f>B37/C37</f>
         <v>2694.1959405641583</v>
       </c>
-      <c r="D52" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="D52" s="5">
+        <v>0</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="6"/>
@@ -1807,13 +3553,11 @@
         <f t="shared" si="7"/>
         <v>2694.7153870822622</v>
       </c>
-      <c r="G52" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1825,7 +3569,7 @@
         <v>508.33019837682684</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D49:D59" si="8">B38/D38</f>
         <v>1378.4609480355007</v>
       </c>
       <c r="E53" s="5">
@@ -1837,11 +3581,11 @@
         <v>550.11426519360805</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G49:G59" si="9">B38/G38</f>
         <v>2762.7693027829555</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2635.718005167821</v>
       </c>
     </row>
@@ -1854,7 +3598,7 @@
         <v>43.999694123639941</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>233.49384379845876</v>
       </c>
       <c r="E54" s="5">
@@ -1866,11 +3610,11 @@
         <v>57.168248355409865</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>350.30242677866335</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>233.49755758404615</v>
       </c>
     </row>
@@ -1883,7 +3627,7 @@
         <v>4.5783228123207875</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24.200411337473032</v>
       </c>
       <c r="E55" s="5">
@@ -1895,11 +3639,11 @@
         <v>5.9086902452325427</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.697091231838826</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>24.199526896741173</v>
       </c>
     </row>
@@ -1912,7 +3656,7 @@
         <v>2.3153140994907488</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.231524410241695</v>
       </c>
       <c r="E56" s="5">
@@ -1924,11 +3668,11 @@
         <v>2.9765425519529267</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.675823395076094</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12.128871934480088</v>
       </c>
     </row>
@@ -1941,7 +3685,7 @@
         <v>1.537617270151346</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1404052546112382</v>
       </c>
       <c r="E57" s="5">
@@ -1953,11 +3697,11 @@
         <v>1.9778225029151599</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.518049662187536</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8.079820550562772</v>
       </c>
     </row>
@@ -1970,7 +3714,7 @@
         <v>1.1086604423066924</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.0859847588637717</v>
       </c>
       <c r="E58" s="5">
@@ -1982,11 +3726,11 @@
         <v>1.4822343593688556</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.8507040516425111</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6.0785058024184933</v>
       </c>
     </row>
@@ -1999,7 +3743,7 @@
         <v>0.8600608854323194</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.8914270373692279</v>
       </c>
       <c r="E59" s="5">
@@ -2011,11 +3755,11 @@
         <v>1.1202949766262225</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1178503256830696</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.9046875488440644</v>
       </c>
     </row>
@@ -2028,5 +3772,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>